--- a/09_MPEC_Bidding_Diagonalization/MatlabCode/V04/Ali Data/Strategic DA Quantity Offers.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/MatlabCode/V04/Ali Data/Strategic DA Quantity Offers.xlsx
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.577554090838396</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.493488898950684</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4992910968801438</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -617,22 +617,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0003689923806687</v>
+        <v>1.475974613640574e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0097444580989344</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0230540867890107</v>
+        <v>9.221634968525905e-06</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0026906164397442</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0039819999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007816999999999999</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0186920000000001</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.000889</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>9.216883427092901e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>0.028067</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.008748850978547299</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -936,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000576</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.006892</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02031</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.009927</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0026229999999999</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.000499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1094,16 +1094,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.019328</v>
+        <v>8e-06</v>
       </c>
       <c r="V8" t="n">
-        <v>0.028461</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01861</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0014949999999999</v>
+        <v>1e-06</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>3.120698144343237e-13</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0203289132109892</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.022441</v>
+        <v>9e-06</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002005</v>
+        <v>1e-06</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1415,73 +1415,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0025204974255624</v>
+        <v>1.008198970224962e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07498712486023849</v>
+        <v>1.07208499440954e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7357205148226947</v>
+        <v>0.0001808130286241</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5640443635085495</v>
+        <v>0.0001307630486666</v>
       </c>
       <c r="F2" t="n">
-        <v>1.34967333333333</v>
+        <v>8.351227695744691e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.987665033333334e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>2.019271333333336</v>
+        <v>0.000341457360801</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6925583333333359</v>
+        <v>1.575486146857411e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.207283951349619</v>
+        <v>8.979410392270511e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3825133333333355</v>
+        <v>3.836114684747721e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.496887878995822e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>1.431670333333308</v>
+        <v>0.0001888840796638</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8378293333333389</v>
+        <v>0.0003605436314839</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0453644401237758</v>
+        <v>0.0001894992998768</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.0004029229288147</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.959707097264462</v>
+        <v>3.352822897670653e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8755688990957413</v>
+        <v>0.0002303694036099</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0194037650000029</v>
+        <v>7.761505999999072e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>5.090966710696865e-13</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>4.216883427092896e-06</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0628698509785474</v>
+        <v>1.195260705808566e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>4.004420090768986e-06</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1494,73 +1494,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.008609</v>
+        <v>3e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03781</v>
+        <v>1.9e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.289274</v>
+        <v>1.2e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.109802</v>
+        <v>4.4e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.245988</v>
+        <v>2.4e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.050579</v>
+        <v>0.000182</v>
       </c>
       <c r="H3" t="n">
-        <v>0.019546</v>
+        <v>9.399999999999999e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.360207</v>
+        <v>0.000324</v>
       </c>
       <c r="J3" t="n">
-        <v>0.150084</v>
+        <v>0.000205</v>
       </c>
       <c r="K3" t="n">
-        <v>0.231339</v>
+        <v>1e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>2.735834</v>
+        <v>0.0009810000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09295200000000001</v>
+        <v>0.00022</v>
       </c>
       <c r="N3" t="n">
-        <v>0.142359</v>
+        <v>0.00022</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8636200000000001</v>
+        <v>0.000142</v>
       </c>
       <c r="P3" t="n">
-        <v>0.375453</v>
+        <v>0.000133</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.040169</v>
+        <v>1.6e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09307699999999999</v>
+        <v>0.000109</v>
       </c>
       <c r="S3" t="n">
-        <v>0.026599</v>
+        <v>1.1e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07686999999999999</v>
+        <v>3e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335</v>
+        <v>2e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.9e-05</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01639</v>
+        <v>1e-06</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1573,70 +1573,70 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00178</v>
+        <v>1e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>0.023369</v>
+        <v>9e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.034686</v>
+        <v>1.4e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.030597</v>
+        <v>1.2e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06425699999999999</v>
+        <v>2.9e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.314703</v>
+        <v>1.7e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.062919</v>
+        <v>0.000439</v>
       </c>
       <c r="I4" t="n">
-        <v>0.29761</v>
+        <v>0.000219</v>
       </c>
       <c r="J4" t="n">
-        <v>0.529072</v>
+        <v>9.500000000000001e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.108366</v>
+        <v>3e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.282759</v>
+        <v>0.00017</v>
       </c>
       <c r="M4" t="n">
-        <v>0.402262</v>
+        <v>4.9e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.40731</v>
+        <v>0.0005330000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7490790000000001</v>
+        <v>0.000429</v>
       </c>
       <c r="P4" t="n">
-        <v>1.143118</v>
+        <v>0.000429</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.122264</v>
+        <v>3.5e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>0.084692</v>
+        <v>1.4e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.029868</v>
+        <v>0.000112</v>
       </c>
       <c r="T4" t="n">
-        <v>0.008444999999999999</v>
+        <v>3e-06</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2e-06</v>
       </c>
       <c r="V4" t="n">
-        <v>0.005407</v>
+        <v>2.6e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1652,76 +1652,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006881</v>
+        <v>3e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.021849</v>
+        <v>9e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.022874</v>
+        <v>0.000109</v>
       </c>
       <c r="E5" t="n">
-        <v>0.062751</v>
+        <v>0.000345</v>
       </c>
       <c r="F5" t="n">
-        <v>1.126206</v>
+        <v>1.7e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.806085999999981</v>
+        <v>0.000117</v>
       </c>
       <c r="H5" t="n">
-        <v>0.352858</v>
+        <v>0.000138</v>
       </c>
       <c r="I5" t="n">
-        <v>0.275109</v>
+        <v>1.4e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.132418</v>
+        <v>7e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.71255</v>
+        <v>0.000541</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.630697</v>
+        <v>5.2e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.191333</v>
+        <v>0.00019</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9626330000000004</v>
+        <v>0.000466</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.043669</v>
+        <v>0.000225</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07198599999999999</v>
+        <v>0.000123</v>
       </c>
       <c r="S5" t="n">
-        <v>0.030152</v>
+        <v>1.3e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007092</v>
+        <v>0.000209</v>
       </c>
       <c r="U5" t="n">
-        <v>0.009665</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>5e-06</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002208</v>
+        <v>1e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.000785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1731,73 +1731,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008362</v>
+        <v>3e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.020643</v>
+        <v>8e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.040222</v>
+        <v>0.000116</v>
       </c>
       <c r="E6" t="n">
-        <v>0.030377</v>
+        <v>1.7e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.120773</v>
+        <v>1.8e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.032155</v>
+        <v>7.1e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.114191</v>
+        <v>1.3e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.024348</v>
+        <v>0.000343</v>
       </c>
       <c r="J6" t="n">
-        <v>0.390618</v>
+        <v>0.000248</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02585</v>
+        <v>1e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.7e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0677180000000019</v>
+        <v>4.1e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>0.240737</v>
+        <v>0.000443</v>
       </c>
       <c r="O6" t="n">
-        <v>0.732145</v>
+        <v>0.000485</v>
       </c>
       <c r="P6" t="n">
-        <v>3.009523813221436</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.016239</v>
+        <v>0.000116</v>
       </c>
       <c r="R6" t="n">
-        <v>0.065556</v>
+        <v>6.1e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.373956</v>
+        <v>0.000122</v>
       </c>
       <c r="T6" t="n">
-        <v>0.009408</v>
+        <v>4e-06</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.09929399999999999</v>
+        <v>2.3e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.1e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001239</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1810,73 +1810,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006562</v>
+        <v>3e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>0.022798</v>
+        <v>9e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.034603</v>
+        <v>1.4e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.245463</v>
+        <v>1.5e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.043096</v>
+        <v>0.000309</v>
       </c>
       <c r="G7" t="n">
-        <v>0.648105</v>
+        <v>0.000251</v>
       </c>
       <c r="H7" t="n">
-        <v>0.545633</v>
+        <v>0.000184</v>
       </c>
       <c r="I7" t="n">
-        <v>0.57446</v>
+        <v>0.000116</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9507370000000008</v>
+        <v>0.00011</v>
       </c>
       <c r="K7" t="n">
-        <v>0.349135</v>
+        <v>4e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.000425</v>
       </c>
       <c r="M7" t="n">
-        <v>0.157501</v>
+        <v>6.3e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.433983</v>
+        <v>0.000177</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5132908364086717</v>
+        <v>0.000349</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.000183</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.040357</v>
+        <v>0.000407</v>
       </c>
       <c r="R7" t="n">
-        <v>0.073938</v>
+        <v>2.3e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.841432</v>
+        <v>0.000126</v>
       </c>
       <c r="T7" t="n">
-        <v>0.008770999999999999</v>
+        <v>7e-06</v>
       </c>
       <c r="U7" t="n">
-        <v>0.000683</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.3e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>7e-06</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1889,61 +1889,61 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00078</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.025065</v>
+        <v>1e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.030448</v>
+        <v>1.6e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.035607</v>
+        <v>3.5e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06505900000000001</v>
+        <v>1.5e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3515924241717534</v>
+        <v>0.000264</v>
       </c>
       <c r="H8" t="n">
-        <v>0.091932</v>
+        <v>0.000267</v>
       </c>
       <c r="I8" t="n">
-        <v>0.032356</v>
+        <v>0.000197</v>
       </c>
       <c r="J8" t="n">
-        <v>0.055929</v>
+        <v>9e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.066085</v>
+        <v>2.6e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>2.890228232284019</v>
+        <v>0.000788</v>
       </c>
       <c r="M8" t="n">
-        <v>0.208578</v>
+        <v>8.3e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.203934</v>
+        <v>8.2e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.817572</v>
+        <v>6.3e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.000112</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.768074</v>
+        <v>5.9e-05</v>
       </c>
       <c r="R8" t="n">
-        <v>0.079403</v>
+        <v>0.000216</v>
       </c>
       <c r="S8" t="n">
-        <v>0.338416</v>
+        <v>0.00041</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004139</v>
+        <v>2e-06</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>4e-06</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1968,58 +1968,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007763</v>
+        <v>3e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03245</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.048179</v>
+        <v>1.9e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.052902</v>
+        <v>0.00014</v>
       </c>
       <c r="F9" t="n">
-        <v>0.289708</v>
+        <v>0.000182</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03921</v>
+        <v>0.000113</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09002400000000001</v>
+        <v>1.7e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.036388</v>
+        <v>1.5e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.043314</v>
+        <v>8e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02916</v>
+        <v>2.1e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.81169</v>
+        <v>0.000255</v>
       </c>
       <c r="M9" t="n">
-        <v>1.85255</v>
+        <v>5.7e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>0.722895</v>
+        <v>0.000679</v>
       </c>
       <c r="O9" t="n">
-        <v>0.739587</v>
+        <v>0.000372</v>
       </c>
       <c r="P9" t="n">
-        <v>0.638248000000003</v>
+        <v>0.000144</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.279667</v>
+        <v>0.000118</v>
       </c>
       <c r="R9" t="n">
-        <v>0.052326</v>
+        <v>0.00011</v>
       </c>
       <c r="S9" t="n">
-        <v>0.578616</v>
+        <v>0.000198</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -2028,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.3e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.3e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>0.012599</v>
+        <v>5e-06</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.003696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2047,70 +2047,70 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004391</v>
+        <v>2e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.032627</v>
+        <v>1.3e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.038362</v>
+        <v>1.5e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.033986</v>
+        <v>1.4e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.028573</v>
+        <v>3.1e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>2.668457</v>
+        <v>0.00025</v>
       </c>
       <c r="H10" t="n">
-        <v>0.036959</v>
+        <v>0.000115</v>
       </c>
       <c r="I10" t="n">
-        <v>0.040297</v>
+        <v>1.6e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.98867</v>
+        <v>0.00049</v>
       </c>
       <c r="K10" t="n">
-        <v>0.428335</v>
+        <v>0.000222</v>
       </c>
       <c r="L10" t="n">
-        <v>0.606311</v>
+        <v>0.000192</v>
       </c>
       <c r="M10" t="n">
-        <v>0.989405</v>
+        <v>4.9e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.152953</v>
+        <v>0.000408</v>
       </c>
       <c r="O10" t="n">
-        <v>0.098804</v>
+        <v>6.600000000000001e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>0.185394</v>
+        <v>0.000209</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.028923</v>
+        <v>0.000417</v>
       </c>
       <c r="R10" t="n">
-        <v>0.075446</v>
+        <v>1.4e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.016957</v>
+        <v>7e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>0.005142</v>
+        <v>2e-06</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.023337</v>
+        <v>2.3e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3e-05</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
